--- a/data/Dr Challoners Data/IBSC Teacher Dr Challoners 10R.xlsx
+++ b/data/Dr Challoners Data/IBSC Teacher Dr Challoners 10R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3c85ca06803d405f/2017-2019/Documents/RF/IBSC Survey Feedback/Master Dash/data/Dr Challoners Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_8DD8C39575F05FA2C01B1C6BF4F1D3386616F73D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{340B7937-2723-4571-916F-8E7D3D7638C2}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_8DD8C39575F05FA2C01B1C6BF4F1D3386616F73D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04FA0C9F-0C03-4BC9-8A8E-D498CE959C95}"/>
   <bookViews>
-    <workbookView xWindow="43740" yWindow="2390" windowWidth="28100" windowHeight="15910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="37690" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Attributes" sheetId="1" r:id="rId1"/>
@@ -660,6 +660,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -990,9 +994,12 @@
       <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.9140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1073,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1137,7 +1144,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1208,7 +1215,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1279,7 +1286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -1421,7 +1428,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1492,7 +1499,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>65</v>
       </c>
@@ -1563,7 +1570,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -1634,7 +1641,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1705,7 +1712,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -1776,7 +1783,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -1847,7 +1854,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -1918,7 +1925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -1989,7 +1996,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -2060,7 +2067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>101</v>
       </c>
@@ -2131,7 +2138,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -2202,7 +2209,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -2273,7 +2280,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -2344,7 +2351,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -2415,7 +2422,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -2486,7 +2493,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>124</v>
       </c>
@@ -2557,7 +2564,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>128</v>
       </c>
@@ -2628,7 +2635,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -2699,7 +2706,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -2770,7 +2777,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -2841,7 +2848,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -2912,7 +2919,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>151</v>
       </c>
@@ -2983,7 +2990,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>157</v>
       </c>
@@ -3054,7 +3061,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -3125,7 +3132,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>169</v>
       </c>
@@ -3196,7 +3203,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>175</v>
       </c>
@@ -3281,9 +3288,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -3297,7 +3304,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3311,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3325,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -3339,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3353,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3367,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3381,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3395,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3409,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3423,7 +3430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3437,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3451,7 +3458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3465,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3479,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3493,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3507,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3521,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3535,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3549,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3563,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3577,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3591,7 +3598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3605,7 +3612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -3619,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3633,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -3647,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -3661,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -3675,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3689,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3703,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -3731,9 +3738,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -3747,7 +3754,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -3761,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -3775,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -3789,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3803,7 +3810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3817,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3831,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3845,7 +3852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3859,7 +3866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3873,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3887,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3901,7 +3908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3915,7 +3922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3929,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3943,7 +3950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3957,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3971,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -3985,7 +3992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3999,7 +4006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4013,7 +4020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4027,7 +4034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4041,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -4055,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4069,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4083,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4097,7 +4104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -4111,7 +4118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -4125,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -4139,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -4153,7 +4160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -4181,9 +4188,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -4197,7 +4204,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4211,7 +4218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -4225,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4239,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4253,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -4267,7 +4274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4281,7 +4288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -4295,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4309,7 +4316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -4323,7 +4330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4337,7 +4344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4351,7 +4358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -4365,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4379,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4393,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -4407,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4421,7 +4428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4435,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4449,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4463,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4477,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4491,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -4505,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4519,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4533,7 +4540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4547,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -4561,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -4575,7 +4582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -4589,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -4603,7 +4610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -4631,9 +4638,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -4647,7 +4654,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4661,7 +4668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -4675,7 +4682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4689,7 +4696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4703,7 +4710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -4717,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -4731,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -4745,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -4759,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -4773,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4787,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -4801,7 +4808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -4815,7 +4822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4829,7 +4836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -4843,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -4857,7 +4864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4871,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4885,7 +4892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4899,7 +4906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4913,7 +4920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4927,7 +4934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4941,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -4955,7 +4962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4969,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4983,7 +4990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4997,7 +5004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5011,7 +5018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -5025,7 +5032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -5039,7 +5046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -5053,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -5081,9 +5088,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -5097,7 +5104,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5111,7 +5118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -5125,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -5139,7 +5146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -5153,7 +5160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5167,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -5181,7 +5188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -5195,7 +5202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -5209,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5223,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5237,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5251,7 +5258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -5265,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5279,7 +5286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5293,7 +5300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -5307,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -5321,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5335,7 +5342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -5349,7 +5356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -5363,7 +5370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -5377,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5391,7 +5398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -5405,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5419,7 +5426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5433,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5447,7 +5454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5461,7 +5468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -5475,7 +5482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -5489,7 +5496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -5503,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -5531,9 +5538,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>180</v>
       </c>
@@ -5547,7 +5554,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -5561,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -5575,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -5589,7 +5596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -5603,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -5617,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -5631,7 +5638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -5645,7 +5652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -5659,7 +5666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5673,7 +5680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5687,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5701,7 +5708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -5715,7 +5722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5729,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -5743,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -5757,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -5771,7 +5778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -5785,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -5799,7 +5806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -5813,7 +5820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -5827,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -5841,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -5855,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5869,7 +5876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -5883,7 +5890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -5897,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -5911,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -5925,7 +5932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -5939,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -5953,7 +5960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>23</v>
       </c>
